--- a/myFile.xlsx
+++ b/myFile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcot./Library/Mobile Documents/com~apple~CloudDocs/Job applications/In A Minnit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcot./Library/Mobile Documents/com~apple~CloudDocs/Job applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E7C927-F446-274D-8804-640283715A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C7939D-31BF-9341-8E6D-F48AF167FE03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5540" yWindow="1400" windowWidth="26980" windowHeight="19680" xr2:uid="{C3036B9E-04F3-A844-BF7B-4A86B94952F3}"/>
+    <workbookView xWindow="5540" yWindow="1400" windowWidth="26980" windowHeight="19680" activeTab="4" xr2:uid="{C3036B9E-04F3-A844-BF7B-4A86B94952F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="174">
   <si>
     <t>Estimated time to complete the task</t>
   </si>
@@ -532,9 +532,6 @@
   </si>
   <si>
     <t>If a job is 5hrs, charge 7 (due to the guy not able to go anywhere else)</t>
-  </si>
-  <si>
-    <t>When UAW is metro there is no travel</t>
   </si>
   <si>
     <t>Ryan does quotes for CSV (when &gt;10k)</t>
@@ -607,9 +604,6 @@
   <si>
     <t>When sending off quotes, move the quote to Quotes Submitted</t>
   </si>
-  <si>
-    <t>Concrete footing: 1 hour labour, $20 for 2 concrete bags and $65 for U beam</t>
-  </si>
 </sst>
 </file>
 
@@ -619,7 +613,7 @@
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -648,13 +642,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="13"/>
@@ -716,7 +703,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -754,12 +741,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1077,7 +1062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C8C120-3751-DA4D-B51F-3573C6671DB2}">
   <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -1145,12 +1130,12 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -1160,11 +1145,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF98167-2C48-424A-90D5-8CAD2C3999BB}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1173,12 +1158,13 @@
     <col min="2" max="2" width="28" style="3" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="10" customWidth="1"/>
     <col min="4" max="4" width="11.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.5" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>45</v>
       </c>
@@ -1191,17 +1177,20 @@
       <c r="D1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1211,17 +1200,20 @@
       <c r="D2" s="5">
         <v>95</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="7">
+        <v>779.24</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1231,17 +1223,21 @@
       <c r="D3" s="5">
         <v>195</v>
       </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="7">
+        <f>D3*1.1</f>
+        <v>214.50000000000003</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1251,17 +1247,21 @@
       <c r="D4" s="5">
         <v>195</v>
       </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="E4" s="7">
+        <f t="shared" ref="E4:E31" si="0">D4*1.1</f>
+        <v>214.50000000000003</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>158</v>
       </c>
@@ -1271,17 +1271,21 @@
       <c r="D5" s="5">
         <v>95</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="7">
+        <f t="shared" si="0"/>
+        <v>104.50000000000001</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="H5" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1291,17 +1295,21 @@
       <c r="D6" s="5">
         <v>95</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="7">
+        <f t="shared" si="0"/>
+        <v>104.50000000000001</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -1311,17 +1319,21 @@
       <c r="D7" s="5">
         <v>95</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="7">
+        <f t="shared" si="0"/>
+        <v>104.50000000000001</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -1331,17 +1343,21 @@
       <c r="D8" s="5">
         <v>75</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="7">
+        <f t="shared" si="0"/>
+        <v>82.5</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -1351,17 +1367,21 @@
       <c r="D9" s="5">
         <v>75</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="7">
+        <f t="shared" si="0"/>
+        <v>82.5</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
@@ -1371,17 +1391,21 @@
       <c r="D10" s="5">
         <v>95</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="7">
+        <f t="shared" si="0"/>
+        <v>104.50000000000001</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="170" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="170" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
@@ -1391,14 +1415,18 @@
       <c r="D11" s="5">
         <v>85</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="7">
+        <f t="shared" si="0"/>
+        <v>93.500000000000014</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -1408,17 +1436,21 @@
       <c r="D12" s="5">
         <v>85</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="7">
+        <f t="shared" si="0"/>
+        <v>93.500000000000014</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
@@ -1428,17 +1460,21 @@
       <c r="D13" s="5">
         <v>130</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="7">
+        <f t="shared" si="0"/>
+        <v>143</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>23</v>
       </c>
@@ -1448,14 +1484,18 @@
       <c r="D14" s="5">
         <v>450</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="7">
+        <f t="shared" si="0"/>
+        <v>495.00000000000006</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
@@ -1465,14 +1505,18 @@
       <c r="D15" s="5">
         <v>550</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="7">
+        <f t="shared" si="0"/>
+        <v>605</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>26</v>
       </c>
@@ -1482,14 +1526,18 @@
       <c r="D16" s="5">
         <v>280</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="7">
+        <f t="shared" si="0"/>
+        <v>308</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>28</v>
       </c>
@@ -1499,11 +1547,15 @@
       <c r="D17" s="5">
         <v>180</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="7">
+        <f t="shared" si="0"/>
+        <v>198.00000000000003</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>29</v>
       </c>
@@ -1513,14 +1565,18 @@
       <c r="D18" s="5">
         <v>280</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="7">
+        <f t="shared" si="0"/>
+        <v>308</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>30</v>
       </c>
@@ -1530,11 +1586,15 @@
       <c r="D19" s="5">
         <v>180</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="7">
+        <f t="shared" si="0"/>
+        <v>198.00000000000003</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>31</v>
       </c>
@@ -1542,14 +1602,18 @@
         <v>94</v>
       </c>
       <c r="D20" s="6"/>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
@@ -1557,14 +1621,18 @@
         <v>94</v>
       </c>
       <c r="D21" s="5"/>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>36</v>
       </c>
@@ -1574,11 +1642,15 @@
       <c r="D22" s="5">
         <v>950</v>
       </c>
-      <c r="E22" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E22" s="7">
+        <f t="shared" si="0"/>
+        <v>1045</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>35</v>
       </c>
@@ -1588,11 +1660,15 @@
       <c r="D23" s="5">
         <v>1100</v>
       </c>
-      <c r="E23" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E23" s="7">
+        <f t="shared" si="0"/>
+        <v>1210</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>37</v>
       </c>
@@ -1602,11 +1678,15 @@
       <c r="D24" s="5">
         <v>1200</v>
       </c>
-      <c r="E24" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E24" s="7">
+        <f t="shared" si="0"/>
+        <v>1320</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>38</v>
       </c>
@@ -1616,11 +1696,15 @@
       <c r="D25" s="5">
         <v>1250</v>
       </c>
-      <c r="E25" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E25" s="7">
+        <f t="shared" si="0"/>
+        <v>1375</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>39</v>
       </c>
@@ -1630,11 +1714,15 @@
       <c r="D26" s="5">
         <v>1400</v>
       </c>
-      <c r="E26" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E26" s="7">
+        <f t="shared" si="0"/>
+        <v>1540.0000000000002</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>40</v>
       </c>
@@ -1644,11 +1732,15 @@
       <c r="D27" s="5">
         <v>250</v>
       </c>
-      <c r="E27" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="E27" s="7">
+        <f t="shared" si="0"/>
+        <v>275</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>41</v>
       </c>
@@ -1658,11 +1750,15 @@
       <c r="D28" s="5">
         <v>350</v>
       </c>
-      <c r="E28" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E28" s="7">
+        <f t="shared" si="0"/>
+        <v>385.00000000000006</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
@@ -1672,11 +1768,15 @@
       <c r="D29" s="5">
         <v>60</v>
       </c>
-      <c r="E29" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E29" s="7">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>43</v>
       </c>
@@ -1686,11 +1786,15 @@
       <c r="D30" s="5">
         <v>120</v>
       </c>
-      <c r="E30" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="E30" s="7">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>44</v>
       </c>
@@ -1700,9 +1804,145 @@
       <c r="D31" s="5">
         <v>250</v>
       </c>
-      <c r="E31" s="3">
-        <v>1</v>
-      </c>
+      <c r="E31" s="7">
+        <f t="shared" si="0"/>
+        <v>275</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E34" s="7"/>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E40" s="7"/>
+    </row>
+    <row r="41" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E41" s="7"/>
+    </row>
+    <row r="42" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E42" s="9"/>
+    </row>
+    <row r="43" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E43" s="9"/>
+    </row>
+    <row r="44" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E44" s="7"/>
+    </row>
+    <row r="45" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E45" s="7"/>
+    </row>
+    <row r="46" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E67" s="2"/>
+    </row>
+    <row r="68" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E68" s="2"/>
+    </row>
+    <row r="69" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E72" s="2"/>
+    </row>
+    <row r="73" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E73" s="2"/>
+    </row>
+    <row r="74" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E74" s="2"/>
+    </row>
+    <row r="75" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E75" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1711,11 +1951,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADA2F700-33CA-E341-898D-2C44147F6EEF}">
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A44" sqref="A44:XFD241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2184,11 +2424,11 @@
       <c r="C20" s="10">
         <v>5003264</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="15">
         <f t="shared" si="0"/>
         <v>165.98181818181817</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="15">
         <v>182.58</v>
       </c>
       <c r="F20" s="3">
@@ -2209,11 +2449,11 @@
       <c r="C21" s="10">
         <v>5003263</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="15">
         <f t="shared" si="0"/>
         <v>157.24545454545452</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="15">
         <v>172.97</v>
       </c>
       <c r="F21" s="3">
@@ -2234,11 +2474,11 @@
       <c r="C22" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="15">
         <f t="shared" si="0"/>
         <v>218.35454545454544</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="15">
         <v>240.19</v>
       </c>
       <c r="F22" s="3">
@@ -2259,11 +2499,11 @@
       <c r="C23" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="15">
         <f t="shared" si="0"/>
         <v>161.6181818181818</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="15">
         <v>177.78</v>
       </c>
       <c r="F23" s="3">
@@ -2583,7 +2823,7 @@
     </row>
     <row r="37" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>96</v>
@@ -2600,10 +2840,10 @@
         <v>1</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2635,7 +2875,7 @@
     </row>
     <row r="39" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>96</v>
@@ -2729,154 +2969,20 @@
         <v>139</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D44" s="7">
-        <f>D38+D39</f>
-        <v>103.39090909090909</v>
-      </c>
-      <c r="E44" s="7"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-    </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-    </row>
-    <row r="60" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-    </row>
-    <row r="61" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-    </row>
-    <row r="62" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-    </row>
-    <row r="63" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-    </row>
-    <row r="64" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-    </row>
-    <row r="65" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-    </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-    </row>
-    <row r="67" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-    </row>
-    <row r="68" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-    </row>
-    <row r="69" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-    </row>
-    <row r="70" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-    </row>
-    <row r="71" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-    </row>
-    <row r="72" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-    </row>
-    <row r="73" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-    </row>
-    <row r="74" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-    </row>
-    <row r="75" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-    </row>
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{ADA2F700-33CA-E341-898D-2C44147F6EEF}"/>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A5916B2-A5EA-9249-ACE8-3573D77C348D}">
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2924,11 +3030,11 @@
       <c r="B2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="7">
         <v>205</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
@@ -2947,11 +3053,11 @@
       <c r="B3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="7">
         <v>241.5</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="F3" s="3">
         <v>1</v>
@@ -2968,11 +3074,11 @@
         <v>52</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="D4" s="7">
+      <c r="D4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="7">
         <v>159.94999999999999</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
@@ -2990,11 +3096,11 @@
       <c r="C5" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" s="7">
         <v>36.979999999999997</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -3012,11 +3118,11 @@
       <c r="C6" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="7">
         <v>44.34</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
@@ -3034,11 +3140,11 @@
       <c r="C7" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="9">
         <v>50.18</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="F7" s="8">
         <v>1</v>
@@ -3053,10 +3159,10 @@
       <c r="B8" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>127</v>
       </c>
+      <c r="E8" s="9"/>
       <c r="F8" s="8"/>
       <c r="G8" s="3" t="s">
         <v>63</v>
@@ -3073,11 +3179,11 @@
       <c r="C9" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" s="9">
         <v>63.63</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="F9" s="8">
         <v>1</v>
@@ -3095,11 +3201,11 @@
       <c r="C10" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10" s="9">
         <v>78.53</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="F10" s="8">
         <v>1</v>
@@ -3117,11 +3223,11 @@
       <c r="C11" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" s="7">
         <v>32.97</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
@@ -3141,11 +3247,11 @@
       <c r="C12" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" s="7">
         <v>37.590000000000003</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
@@ -3165,11 +3271,11 @@
       <c r="C13" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" s="7">
         <v>43.06</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="F13" s="3">
         <v>1</v>
@@ -3189,11 +3295,11 @@
       <c r="C14" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14" s="7">
         <v>46.86</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -3213,11 +3319,11 @@
       <c r="C15" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" s="7">
         <v>51.82</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="F15" s="3">
         <v>1</v>
@@ -3237,11 +3343,11 @@
       <c r="C16" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16" s="7">
         <v>59.6</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="F16" s="3">
         <v>1</v>
@@ -3260,11 +3366,11 @@
       <c r="C17" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" s="7">
         <v>54.72</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="F17" s="3">
         <v>1</v>
@@ -3281,11 +3387,11 @@
       <c r="B18" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18" s="7">
         <v>74.72</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="F18" s="3">
         <v>1</v>
@@ -3307,11 +3413,11 @@
       <c r="C19" s="10">
         <v>5003264</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19" s="7">
         <v>76</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="F19" s="3">
         <v>1</v>
@@ -3331,11 +3437,11 @@
       <c r="C20" s="10">
         <v>5003263</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" s="7">
         <v>72</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="F20" s="3">
         <v>1</v>
@@ -3355,11 +3461,11 @@
       <c r="C21" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21" s="7">
         <v>99.98</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="F21" s="3">
         <v>1</v>
@@ -3379,11 +3485,11 @@
       <c r="C22" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22" s="7">
         <v>74</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="F22" s="3">
         <v>1</v>
@@ -3400,10 +3506,10 @@
       <c r="B23" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7" t="s">
+      <c r="D23" s="7" t="s">
         <v>127</v>
       </c>
+      <c r="E23" s="7"/>
       <c r="F23" s="3">
         <v>1</v>
       </c>
@@ -3420,11 +3526,11 @@
       <c r="C24" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24" s="7">
         <v>75.5</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="F24" s="3">
         <v>1</v>
@@ -3442,11 +3548,11 @@
       <c r="C25" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25" s="7">
         <v>124</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="F25" s="3">
         <v>1</v>
@@ -3461,11 +3567,11 @@
       <c r="B26" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26" s="7">
         <v>98.85</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="F26" s="3">
         <v>1</v>
@@ -3480,10 +3586,10 @@
       <c r="B27" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7" t="s">
+      <c r="D27" s="7" t="s">
         <v>127</v>
       </c>
+      <c r="E27" s="7"/>
       <c r="F27" s="3">
         <v>1</v>
       </c>
@@ -3502,11 +3608,11 @@
       <c r="C28" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28" s="7">
         <v>23.08</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="F28" s="3">
         <v>1</v>
@@ -3528,11 +3634,11 @@
       <c r="C29" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29" s="7">
         <v>24.16</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="F29" s="3">
         <v>1</v>
@@ -3554,11 +3660,11 @@
       <c r="C30" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30" s="7">
         <v>35.700000000000003</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="F30" s="3">
         <v>1</v>
@@ -3576,11 +3682,11 @@
       <c r="C31" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31" s="7">
         <v>2.75</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="F31" s="3">
         <v>1</v>
@@ -3597,11 +3703,11 @@
       <c r="B32" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32" s="7">
         <v>30</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="F32" s="3">
         <v>1</v>
@@ -3620,11 +3726,11 @@
       <c r="B33" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E33" s="7">
         <v>7</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="F33" s="3">
         <v>1</v>
@@ -3643,11 +3749,11 @@
       <c r="C34" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E34" s="7">
         <v>12.26</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="F34" s="3">
         <v>1</v>
@@ -3666,11 +3772,11 @@
       <c r="C35" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E35" s="7">
         <v>14.16</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="F35" s="3">
         <v>1</v>
@@ -3689,11 +3795,11 @@
       <c r="C36" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E36" s="9">
         <v>12.68</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="F36" s="8">
         <v>1</v>
@@ -3712,11 +3818,11 @@
       <c r="C37" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E37" s="7">
         <v>25</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="F37" s="3">
         <v>1</v>
@@ -3730,7 +3836,7 @@
     </row>
     <row r="38" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>96</v>
@@ -3738,11 +3844,11 @@
       <c r="C38" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E38" s="7">
         <v>46</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="F38" s="3">
         <v>1</v>
@@ -3759,146 +3865,25 @@
       <c r="E39" s="7"/>
     </row>
     <row r="40" spans="1:8" ht="24" x14ac:dyDescent="0.3">
-      <c r="A40" s="17" t="s">
-        <v>168</v>
+      <c r="A40" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
     </row>
     <row r="41" spans="1:8" ht="24" x14ac:dyDescent="0.3">
-      <c r="A41" s="17" t="s">
-        <v>172</v>
+      <c r="A41" s="16" t="s">
+        <v>171</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D43" s="7"/>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-    </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-    </row>
-    <row r="60" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-    </row>
-    <row r="61" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-    </row>
-    <row r="62" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-    </row>
-    <row r="63" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-    </row>
-    <row r="64" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-    </row>
-    <row r="65" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-    </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-    </row>
-    <row r="67" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-    </row>
-    <row r="68" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-    </row>
-    <row r="69" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-    </row>
-    <row r="70" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-    </row>
-    <row r="71" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D71" s="2"/>
-    </row>
-    <row r="72" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D72" s="2"/>
-    </row>
-    <row r="73" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D73" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3910,11 +3895,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F0F6594-513C-ED44-ADBA-97197456AB56}">
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4794,7 +4779,7 @@
     </row>
     <row r="38" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>96</v>
@@ -4885,142 +4870,15 @@
         <v>139</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="14" t="s">
+        <v>170</v>
+      </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A47" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-    </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-    </row>
-    <row r="60" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-    </row>
-    <row r="61" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-    </row>
-    <row r="62" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-    </row>
-    <row r="63" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-    </row>
-    <row r="64" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-    </row>
-    <row r="65" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-    </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-    </row>
-    <row r="67" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-    </row>
-    <row r="68" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-    </row>
-    <row r="69" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-    </row>
-    <row r="70" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-    </row>
-    <row r="71" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-    </row>
-    <row r="72" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-    </row>
-    <row r="73" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-    </row>
-    <row r="74" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="C22:C23 C25" numberStoredAsText="1"/>
@@ -5038,22 +4896,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/myFile.xlsx
+++ b/myFile.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcot./Library/Mobile Documents/com~apple~CloudDocs/Job applications/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcot./Library/Mobile Documents/com~apple~CloudDocs/Job applications/In A Minnit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C7939D-31BF-9341-8E6D-F48AF167FE03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062EA738-8B7C-0741-BA28-AA09DC61AAB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5540" yWindow="1400" windowWidth="26980" windowHeight="19680" activeTab="4" xr2:uid="{C3036B9E-04F3-A844-BF7B-4A86B94952F3}"/>
+    <workbookView xWindow="5540" yWindow="1400" windowWidth="26980" windowHeight="19680" activeTab="1" xr2:uid="{C3036B9E-04F3-A844-BF7B-4A86B94952F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="2" r:id="rId1"/>
@@ -1145,11 +1145,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF98167-2C48-424A-90D5-8CAD2C3999BB}">
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1201,7 +1201,8 @@
         <v>95</v>
       </c>
       <c r="E2" s="7">
-        <v>779.24</v>
+        <f>D2*1.1</f>
+        <v>104.50000000000001</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>46</v>
@@ -1811,138 +1812,6 @@
       <c r="F31" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E32" s="7"/>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E33" s="7"/>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E34" s="7"/>
-    </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E35" s="7"/>
-    </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E36" s="7"/>
-    </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E37" s="7"/>
-    </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E40" s="7"/>
-    </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E41" s="7"/>
-    </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E42" s="9"/>
-    </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E43" s="9"/>
-    </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E44" s="7"/>
-    </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E45" s="7"/>
-    </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E58" s="2"/>
-    </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E59" s="2"/>
-    </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E60" s="2"/>
-    </row>
-    <row r="61" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E61" s="2"/>
-    </row>
-    <row r="62" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E62" s="2"/>
-    </row>
-    <row r="63" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E63" s="2"/>
-    </row>
-    <row r="64" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E64" s="2"/>
-    </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E65" s="2"/>
-    </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E66" s="2"/>
-    </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E67" s="2"/>
-    </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E68" s="2"/>
-    </row>
-    <row r="69" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E69" s="2"/>
-    </row>
-    <row r="70" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E70" s="2"/>
-    </row>
-    <row r="71" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E71" s="2"/>
-    </row>
-    <row r="72" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E72" s="2"/>
-    </row>
-    <row r="73" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E73" s="2"/>
-    </row>
-    <row r="74" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E74" s="2"/>
-    </row>
-    <row r="75" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E75" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1954,7 +1823,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A44" sqref="A44:XFD241"/>
     </sheetView>
   </sheetViews>
@@ -3897,7 +3766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F0F6594-513C-ED44-ADBA-97197456AB56}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>

--- a/myFile.xlsx
+++ b/myFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcot./Library/Mobile Documents/com~apple~CloudDocs/Job applications/In A Minnit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062EA738-8B7C-0741-BA28-AA09DC61AAB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F9BB8B-D116-D742-8929-AADCC888FDE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5540" yWindow="1400" windowWidth="26980" windowHeight="19680" activeTab="1" xr2:uid="{C3036B9E-04F3-A844-BF7B-4A86B94952F3}"/>
+    <workbookView xWindow="5540" yWindow="1400" windowWidth="26980" windowHeight="19680" xr2:uid="{C3036B9E-04F3-A844-BF7B-4A86B94952F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="2" r:id="rId1"/>
@@ -1062,7 +1062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C8C120-3751-DA4D-B51F-3573C6671DB2}">
   <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -1147,9 +1147,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF98167-2C48-424A-90D5-8CAD2C3999BB}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1824,7 +1824,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A44" sqref="A44:XFD241"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2850,8 +2850,8 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3768,7 +3768,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/myFile.xlsx
+++ b/myFile.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcot./Library/Mobile Documents/com~apple~CloudDocs/Job applications/In A Minnit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcot./Library/Mobile Documents/com~apple~CloudDocs/_Job applications/In A Minnit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F9BB8B-D116-D742-8929-AADCC888FDE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD707C2E-515F-2641-A2DB-1099557A8D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5540" yWindow="1400" windowWidth="26980" windowHeight="19680" xr2:uid="{C3036B9E-04F3-A844-BF7B-4A86B94952F3}"/>
+    <workbookView xWindow="5540" yWindow="1400" windowWidth="26980" windowHeight="19680" activeTab="5" xr2:uid="{C3036B9E-04F3-A844-BF7B-4A86B94952F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Standard price list" sheetId="8" r:id="rId3"/>
     <sheet name="Monash City &amp; CSV price list" sheetId="6" r:id="rId4"/>
     <sheet name="UAW East price list" sheetId="7" r:id="rId5"/>
-    <sheet name="CSV" sheetId="9" r:id="rId6"/>
+    <sheet name="CSV &amp; Major Mods" sheetId="9" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Standard price list'!$A$1:$H$1</definedName>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="175">
   <si>
     <t>Estimated time to complete the task</t>
   </si>
@@ -603,6 +603,9 @@
   </si>
   <si>
     <t>When sending off quotes, move the quote to Quotes Submitted</t>
+  </si>
+  <si>
+    <t>Major Building Modifications: In SM8, add line items Major building T&amp;C 1 to 5 to the quote</t>
   </si>
 </sst>
 </file>
@@ -1062,7 +1065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C8C120-3751-DA4D-B51F-3573C6671DB2}">
   <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -4757,9 +4760,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F64668F-3AE0-6145-A62B-BF50CD3041FF}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -4783,6 +4788,11 @@
         <v>166</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>174</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/myFile.xlsx
+++ b/myFile.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcot./Library/Mobile Documents/com~apple~CloudDocs/_Job applications/In A Minnit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcot./Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{210C1442-7C95-4040-9132-BF5AE0923B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1108602-AFEB-184E-97B9-C52E3E19AED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="33160" windowHeight="21580" activeTab="3" xr2:uid="{C3036B9E-04F3-A844-BF7B-4A86B94952F3}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="215">
   <si>
     <t>Estimated time to complete the task</t>
   </si>
@@ -3055,8 +3055,8 @@
   <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A6:XFD15"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A52" sqref="A52:XFD53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3263,7 +3263,7 @@
         <v>169</v>
       </c>
       <c r="E10" s="16">
-        <f>E17*1.2</f>
+        <f t="shared" ref="E10:E15" si="0">E17*1.2</f>
         <v>95.051999999999992</v>
       </c>
       <c r="F10" s="3">
@@ -3284,7 +3284,7 @@
         <v>171</v>
       </c>
       <c r="E11" s="16">
-        <f>E18*1.2</f>
+        <f t="shared" si="0"/>
         <v>108.372</v>
       </c>
       <c r="F11" s="3">
@@ -3305,7 +3305,7 @@
         <v>173</v>
       </c>
       <c r="E12" s="16">
-        <f>E19*1.2</f>
+        <f t="shared" si="0"/>
         <v>124.14</v>
       </c>
       <c r="F12" s="3">
@@ -3326,7 +3326,7 @@
         <v>212</v>
       </c>
       <c r="E13" s="16">
-        <f>E20*1.2</f>
+        <f t="shared" si="0"/>
         <v>135.096</v>
       </c>
       <c r="F13" s="3">
@@ -3347,7 +3347,7 @@
         <v>213</v>
       </c>
       <c r="E14" s="16">
-        <f>E21*1.2</f>
+        <f t="shared" si="0"/>
         <v>149.38799999999998</v>
       </c>
       <c r="F14" s="3">
@@ -3368,7 +3368,7 @@
         <v>214</v>
       </c>
       <c r="E15" s="16">
-        <f>E22*1.2</f>
+        <f t="shared" si="0"/>
         <v>171.816</v>
       </c>
       <c r="F15" s="3">
@@ -3386,7 +3386,7 @@
         <v>157</v>
       </c>
       <c r="D16" s="7">
-        <f>E16 / 1.1</f>
+        <f t="shared" ref="D16:D24" si="1">E16 / 1.1</f>
         <v>278.24999999999994</v>
       </c>
       <c r="E16" s="7">
@@ -3411,7 +3411,7 @@
         <v>67</v>
       </c>
       <c r="D17" s="7">
-        <f>E17 / 1.1</f>
+        <f t="shared" si="1"/>
         <v>72.009090909090901</v>
       </c>
       <c r="E17" s="7">
@@ -3435,7 +3435,7 @@
         <v>73</v>
       </c>
       <c r="D18" s="7">
-        <f>E18 / 1.1</f>
+        <f t="shared" si="1"/>
         <v>82.1</v>
       </c>
       <c r="E18" s="7">
@@ -3459,7 +3459,7 @@
         <v>74</v>
       </c>
       <c r="D19" s="7">
-        <f>E19 / 1.1</f>
+        <f t="shared" si="1"/>
         <v>94.045454545454547</v>
       </c>
       <c r="E19" s="7">
@@ -3483,7 +3483,7 @@
         <v>75</v>
       </c>
       <c r="D20" s="7">
-        <f>E20 / 1.1</f>
+        <f t="shared" si="1"/>
         <v>102.34545454545453</v>
       </c>
       <c r="E20" s="7">
@@ -3507,7 +3507,7 @@
         <v>76</v>
       </c>
       <c r="D21" s="7">
-        <f>E21 / 1.1</f>
+        <f t="shared" si="1"/>
         <v>113.17272727272726</v>
       </c>
       <c r="E21" s="7">
@@ -3532,7 +3532,7 @@
         <v>77</v>
       </c>
       <c r="D22" s="7">
-        <f>E22 / 1.1</f>
+        <f t="shared" si="1"/>
         <v>130.16363636363636</v>
       </c>
       <c r="E22" s="7">
@@ -3554,7 +3554,7 @@
         <v>156</v>
       </c>
       <c r="D23" s="7">
-        <f>E23 / 1.1</f>
+        <f t="shared" si="1"/>
         <v>708.4</v>
       </c>
       <c r="E23" s="7">
@@ -3578,7 +3578,7 @@
         <v>156</v>
       </c>
       <c r="D24" s="7">
-        <f>E24 / 1.1</f>
+        <f t="shared" si="1"/>
         <v>771.39999999999986</v>
       </c>
       <c r="E24" s="7">
@@ -3626,7 +3626,7 @@
         <v>55</v>
       </c>
       <c r="D26" s="7">
-        <f>E26 / 1.1</f>
+        <f t="shared" ref="D26:D38" si="2">E26 / 1.1</f>
         <v>80.763636363636365</v>
       </c>
       <c r="E26" s="7">
@@ -3651,7 +3651,7 @@
         <v>57</v>
       </c>
       <c r="D27" s="7">
-        <f>E27 / 1.1</f>
+        <f t="shared" si="2"/>
         <v>96.836363636363629</v>
       </c>
       <c r="E27" s="7">
@@ -3676,7 +3676,7 @@
         <v>59</v>
       </c>
       <c r="D28" s="7">
-        <f>E28 / 1.1</f>
+        <f t="shared" si="2"/>
         <v>109.59090909090908</v>
       </c>
       <c r="E28" s="7">
@@ -3698,7 +3698,7 @@
         <v>158</v>
       </c>
       <c r="D29" s="7">
-        <f>E29 / 1.1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E29" s="7"/>
@@ -3721,7 +3721,7 @@
         <v>63</v>
       </c>
       <c r="D30" s="7">
-        <f>E30 / 1.1</f>
+        <f t="shared" si="2"/>
         <v>138.96363636363637</v>
       </c>
       <c r="E30" s="7">
@@ -3746,7 +3746,7 @@
         <v>65</v>
       </c>
       <c r="D31" s="7">
-        <f>E31 / 1.1</f>
+        <f t="shared" si="2"/>
         <v>171.5090909090909</v>
       </c>
       <c r="E31" s="7">
@@ -3771,7 +3771,7 @@
         <v>128</v>
       </c>
       <c r="D32" s="7">
-        <f>E32 / 1.1</f>
+        <f t="shared" si="2"/>
         <v>433.99999999999994</v>
       </c>
       <c r="E32" s="7">
@@ -3796,7 +3796,7 @@
         <v>79</v>
       </c>
       <c r="D33" s="7">
-        <f>E33 / 1.1</f>
+        <f t="shared" si="2"/>
         <v>119.5090909090909</v>
       </c>
       <c r="E33" s="7">
@@ -3818,7 +3818,7 @@
         <v>159</v>
       </c>
       <c r="D34" s="7">
-        <f>E34 / 1.1</f>
+        <f t="shared" si="2"/>
         <v>163.19090909090906</v>
       </c>
       <c r="E34" s="7">
@@ -3845,7 +3845,7 @@
         <v>90</v>
       </c>
       <c r="D35" s="7">
-        <f>E35 / 1.1</f>
+        <f t="shared" si="2"/>
         <v>164.89090909090908</v>
       </c>
       <c r="E35" s="7">
@@ -3870,7 +3870,7 @@
         <v>102</v>
       </c>
       <c r="D36" s="7">
-        <f>E36 / 1.1</f>
+        <f t="shared" si="2"/>
         <v>218.39999999999998</v>
       </c>
       <c r="E36" s="7">
@@ -3892,7 +3892,7 @@
         <v>159</v>
       </c>
       <c r="D37" s="7">
-        <f>E37 / 1.1</f>
+        <f t="shared" si="2"/>
         <v>215.89090909090908</v>
       </c>
       <c r="E37" s="7">
@@ -3912,7 +3912,7 @@
         <v>159</v>
       </c>
       <c r="D38" s="7">
-        <f>E38 / 1.1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E38" s="7"/>
@@ -4407,11 +4407,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F0F6594-513C-ED44-ADBA-97197456AB56}">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4615,7 +4615,7 @@
         <v>169</v>
       </c>
       <c r="E10" s="16">
-        <f>E17*1.2</f>
+        <f t="shared" ref="E10:E15" si="0">E17*1.2</f>
         <v>67.887600000000006</v>
       </c>
       <c r="F10" s="3">
@@ -4636,7 +4636,7 @@
         <v>171</v>
       </c>
       <c r="E11" s="16">
-        <f>E18*1.2</f>
+        <f t="shared" si="0"/>
         <v>77.404800000000009</v>
       </c>
       <c r="F11" s="3">
@@ -4657,7 +4657,7 @@
         <v>173</v>
       </c>
       <c r="E12" s="16">
-        <f>E19*1.2</f>
+        <f t="shared" si="0"/>
         <v>88.664400000000015</v>
       </c>
       <c r="F12" s="3">
@@ -4678,7 +4678,7 @@
         <v>212</v>
       </c>
       <c r="E13" s="16">
-        <f>E20*1.2</f>
+        <f t="shared" si="0"/>
         <v>96.49199999999999</v>
       </c>
       <c r="F13" s="3">
@@ -4699,7 +4699,7 @@
         <v>213</v>
       </c>
       <c r="E14" s="16">
-        <f>E21*1.2</f>
+        <f t="shared" si="0"/>
         <v>106.70880000000001</v>
       </c>
       <c r="F14" s="3">
@@ -4720,7 +4720,7 @@
         <v>214</v>
       </c>
       <c r="E15" s="16">
-        <f>E22*1.2</f>
+        <f t="shared" si="0"/>
         <v>122.7336</v>
       </c>
       <c r="F15" s="3">
@@ -4741,7 +4741,7 @@
         <v>198.75</v>
       </c>
       <c r="E16" s="7">
-        <f>D16*1.1</f>
+        <f t="shared" ref="E16:E24" si="1">D16*1.1</f>
         <v>218.62500000000003</v>
       </c>
       <c r="F16" s="3">
@@ -4766,7 +4766,7 @@
         <v>51.43</v>
       </c>
       <c r="E17" s="7">
-        <f>D17*1.1</f>
+        <f t="shared" si="1"/>
         <v>56.573000000000008</v>
       </c>
       <c r="F17" s="3">
@@ -4791,7 +4791,7 @@
         <v>58.64</v>
       </c>
       <c r="E18" s="7">
-        <f>D18*1.1</f>
+        <f t="shared" si="1"/>
         <v>64.504000000000005</v>
       </c>
       <c r="F18" s="3">
@@ -4816,7 +4816,7 @@
         <v>67.17</v>
       </c>
       <c r="E19" s="7">
-        <f>D19*1.1</f>
+        <f t="shared" si="1"/>
         <v>73.887000000000015</v>
       </c>
       <c r="F19" s="3">
@@ -4841,7 +4841,7 @@
         <v>73.099999999999994</v>
       </c>
       <c r="E20" s="7">
-        <f>D20*1.1</f>
+        <f t="shared" si="1"/>
         <v>80.41</v>
       </c>
       <c r="F20" s="3">
@@ -4866,7 +4866,7 @@
         <v>80.84</v>
       </c>
       <c r="E21" s="7">
-        <f>D21*1.1</f>
+        <f t="shared" si="1"/>
         <v>88.924000000000007</v>
       </c>
       <c r="F21" s="3">
@@ -4890,7 +4890,7 @@
         <v>92.98</v>
       </c>
       <c r="E22" s="7">
-        <f>D22*1.1</f>
+        <f t="shared" si="1"/>
         <v>102.27800000000001</v>
       </c>
       <c r="F22" s="3">
@@ -4912,7 +4912,7 @@
         <v>506</v>
       </c>
       <c r="E23" s="7">
-        <f>D23*1.1</f>
+        <f t="shared" si="1"/>
         <v>556.6</v>
       </c>
       <c r="F23" s="3">
@@ -4937,7 +4937,7 @@
         <v>551</v>
       </c>
       <c r="E24" s="7">
-        <f>D24*1.1</f>
+        <f t="shared" si="1"/>
         <v>606.1</v>
       </c>
       <c r="F24" s="3">
@@ -4986,7 +4986,7 @@
         <v>57.69</v>
       </c>
       <c r="E26" s="7">
-        <f>D26*1.1</f>
+        <f t="shared" ref="E26:E37" si="2">D26*1.1</f>
         <v>63.459000000000003</v>
       </c>
       <c r="F26" s="3">
@@ -5010,7 +5010,7 @@
         <v>69.17</v>
       </c>
       <c r="E27" s="7">
-        <f>D27*1.1</f>
+        <f t="shared" si="2"/>
         <v>76.087000000000003</v>
       </c>
       <c r="F27" s="3">
@@ -5034,7 +5034,7 @@
         <v>78.28</v>
       </c>
       <c r="E28" s="7">
-        <f>D28*1.1</f>
+        <f t="shared" si="2"/>
         <v>86.108000000000004</v>
       </c>
       <c r="F28" s="8">
@@ -5054,7 +5054,7 @@
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="7">
-        <f>D29*1.1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F29" s="8"/>
@@ -5079,7 +5079,7 @@
         <v>99.26</v>
       </c>
       <c r="E30" s="7">
-        <f>D30*1.1</f>
+        <f t="shared" si="2"/>
         <v>109.18600000000002</v>
       </c>
       <c r="F30" s="8">
@@ -5104,7 +5104,7 @@
         <v>122.51</v>
       </c>
       <c r="E31" s="7">
-        <f>D31*1.1</f>
+        <f t="shared" si="2"/>
         <v>134.76100000000002</v>
       </c>
       <c r="F31" s="8">
@@ -5129,7 +5129,7 @@
         <v>310</v>
       </c>
       <c r="E32" s="7">
-        <f>D32*1.1</f>
+        <f t="shared" si="2"/>
         <v>341</v>
       </c>
       <c r="F32" s="3">
@@ -5154,7 +5154,7 @@
         <v>85.36</v>
       </c>
       <c r="E33" s="7">
-        <f>D33*1.1</f>
+        <f t="shared" si="2"/>
         <v>93.896000000000001</v>
       </c>
       <c r="F33" s="3">
@@ -5176,7 +5176,7 @@
         <v>116.56</v>
       </c>
       <c r="E34" s="7">
-        <f>D34*1.1</f>
+        <f t="shared" si="2"/>
         <v>128.21600000000001</v>
       </c>
       <c r="F34" s="3">
@@ -5203,7 +5203,7 @@
         <v>117.78</v>
       </c>
       <c r="E35" s="7">
-        <f>D35*1.1</f>
+        <f t="shared" si="2"/>
         <v>129.55800000000002</v>
       </c>
       <c r="F35" s="3">
@@ -5228,7 +5228,7 @@
         <v>156</v>
       </c>
       <c r="E36" s="7">
-        <f>D36*1.1</f>
+        <f t="shared" si="2"/>
         <v>171.60000000000002</v>
       </c>
       <c r="F36" s="3">
@@ -5250,7 +5250,7 @@
         <v>154.21</v>
       </c>
       <c r="E37" s="7">
-        <f>D37*1.1</f>
+        <f t="shared" si="2"/>
         <v>169.63100000000003</v>
       </c>
       <c r="F37" s="3">
@@ -5308,7 +5308,7 @@
         <v>46.8</v>
       </c>
       <c r="E40" s="7">
-        <f>D40*1.1</f>
+        <f t="shared" ref="E40:E45" si="3">D40*1.1</f>
         <v>51.480000000000004</v>
       </c>
       <c r="F40" s="3">
@@ -5330,7 +5330,7 @@
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7">
-        <f>D41*1.1</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F41" s="3">
@@ -5354,7 +5354,7 @@
         <v>20.28</v>
       </c>
       <c r="E42" s="7">
-        <f>D42*1.1</f>
+        <f t="shared" si="3"/>
         <v>22.308000000000003</v>
       </c>
       <c r="F42" s="3">
@@ -5381,7 +5381,7 @@
         <v>62.1</v>
       </c>
       <c r="E43" s="7">
-        <f>D43*1.1</f>
+        <f t="shared" si="3"/>
         <v>68.31</v>
       </c>
       <c r="F43" s="3">
@@ -5408,7 +5408,7 @@
         <v>36</v>
       </c>
       <c r="E44" s="7">
-        <f>D44*1.1</f>
+        <f t="shared" si="3"/>
         <v>39.6</v>
       </c>
       <c r="F44" s="3">
@@ -5435,7 +5435,7 @@
         <v>37.69</v>
       </c>
       <c r="E45" s="7">
-        <f>D45*1.1</f>
+        <f t="shared" si="3"/>
         <v>41.459000000000003</v>
       </c>
       <c r="F45" s="3">
@@ -5488,7 +5488,7 @@
         <v>4.29</v>
       </c>
       <c r="E47" s="7">
-        <f>D47*1.1</f>
+        <f t="shared" ref="E47:E57" si="4">D47*1.1</f>
         <v>4.7190000000000003</v>
       </c>
       <c r="F47" s="3">
@@ -5513,7 +5513,7 @@
         <v>18</v>
       </c>
       <c r="E48" s="7">
-        <f>D48*1.1</f>
+        <f t="shared" si="4"/>
         <v>19.8</v>
       </c>
       <c r="F48" s="3">
@@ -5537,7 +5537,7 @@
         <v>18</v>
       </c>
       <c r="E49" s="7">
-        <f>D49*1.1</f>
+        <f t="shared" si="4"/>
         <v>19.8</v>
       </c>
       <c r="F49" s="3">
@@ -5561,7 +5561,7 @@
         <v>18</v>
       </c>
       <c r="E50" s="7">
-        <f>D50*1.1</f>
+        <f t="shared" si="4"/>
         <v>19.8</v>
       </c>
       <c r="F50" s="8">
@@ -5583,7 +5583,7 @@
         <v>350</v>
       </c>
       <c r="E51" s="7">
-        <f>D51*1.1</f>
+        <f t="shared" si="4"/>
         <v>385.00000000000006</v>
       </c>
       <c r="F51" s="8">
@@ -5596,72 +5596,72 @@
         <v>134</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
-        <v>82</v>
+    <row r="52" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C52" s="10">
-        <v>5003264</v>
+        <v>163</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>196</v>
       </c>
       <c r="D52" s="7">
-        <v>118.56</v>
+        <f>E52/1.1</f>
+        <v>77.454545454545453</v>
       </c>
       <c r="E52" s="7">
-        <f>D52*1.1</f>
-        <v>130.41600000000003</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1</v>
-      </c>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
-        <v>84</v>
+        <v>85.2</v>
+      </c>
+      <c r="F52" s="8">
+        <v>1</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="8" t="s">
+        <v>197</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C53" s="10">
-        <v>5003263</v>
+        <v>163</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>198</v>
       </c>
       <c r="D53" s="7">
-        <v>112.32</v>
+        <f>E53/1.1</f>
+        <v>289.09090909090907</v>
       </c>
       <c r="E53" s="7">
-        <f>D53*1.1</f>
-        <v>123.55200000000001</v>
-      </c>
-      <c r="F53" s="3">
-        <v>1</v>
-      </c>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3" t="s">
-        <v>131</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="F53" s="8">
+        <v>1</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="H53" s="3"/>
     </row>
     <row r="54" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C54" s="10" t="s">
-        <v>86</v>
+      <c r="C54" s="10">
+        <v>5003264</v>
       </c>
       <c r="D54" s="7">
-        <v>155.97</v>
+        <v>118.56</v>
       </c>
       <c r="E54" s="7">
-        <f>D54*1.1</f>
-        <v>171.56700000000001</v>
+        <f t="shared" si="4"/>
+        <v>130.41600000000003</v>
       </c>
       <c r="F54" s="3">
         <v>1</v>
@@ -5671,22 +5671,22 @@
         <v>131</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C55" s="10" t="s">
-        <v>87</v>
+      <c r="C55" s="10">
+        <v>5003263</v>
       </c>
       <c r="D55" s="7">
-        <v>115.44</v>
+        <v>112.32</v>
       </c>
       <c r="E55" s="7">
-        <f>D55*1.1</f>
-        <v>126.98400000000001</v>
+        <f t="shared" si="4"/>
+        <v>123.55200000000001</v>
       </c>
       <c r="F55" s="3">
         <v>1</v>
@@ -5696,15 +5696,65 @@
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="13" t="s">
+    <row r="56" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D56" s="7">
+        <v>155.97</v>
+      </c>
+      <c r="E56" s="7">
+        <f t="shared" si="4"/>
+        <v>171.56700000000001</v>
+      </c>
+      <c r="F56" s="3">
+        <v>1</v>
+      </c>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D57" s="7">
+        <v>115.44</v>
+      </c>
+      <c r="E57" s="7">
+        <f t="shared" si="4"/>
+        <v>126.98400000000001</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1</v>
+      </c>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B58" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{8F0F6594-513C-ED44-ADBA-97197456AB56}">

--- a/myFile.xlsx
+++ b/myFile.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcot./Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcot./Library/Mobile Documents/com~apple~CloudDocs/_Job applications/In A Minnit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1108602-AFEB-184E-97B9-C52E3E19AED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0731AE0-1FA1-E146-8398-62C45EA165AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="33160" windowHeight="21580" activeTab="3" xr2:uid="{C3036B9E-04F3-A844-BF7B-4A86B94952F3}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="33160" windowHeight="21580" activeTab="2" xr2:uid="{C3036B9E-04F3-A844-BF7B-4A86B94952F3}"/>
   </bookViews>
   <sheets>
     <sheet name="IAM hrly rates" sheetId="1" r:id="rId1"/>
@@ -3054,9 +3054,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADA2F700-33CA-E341-898D-2C44147F6EEF}">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A52" sqref="A52:XFD53"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3385,12 +3385,9 @@
       <c r="B16" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D16" s="7">
-        <f t="shared" ref="D16:D24" si="1">E16 / 1.1</f>
-        <v>278.24999999999994</v>
-      </c>
+      <c r="D16" s="7"/>
       <c r="E16" s="7">
-        <v>306.07499999999999</v>
+        <v>306.08</v>
       </c>
       <c r="F16" s="3">
         <v>1</v>
@@ -3410,10 +3407,7 @@
       <c r="C17" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="7">
-        <f t="shared" si="1"/>
-        <v>72.009090909090901</v>
-      </c>
+      <c r="D17" s="7"/>
       <c r="E17" s="7">
         <v>79.209999999999994</v>
       </c>
@@ -3434,10 +3428,7 @@
       <c r="C18" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="7">
-        <f t="shared" si="1"/>
-        <v>82.1</v>
-      </c>
+      <c r="D18" s="7"/>
       <c r="E18" s="7">
         <v>90.31</v>
       </c>
@@ -3458,10 +3449,7 @@
       <c r="C19" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="7">
-        <f t="shared" si="1"/>
-        <v>94.045454545454547</v>
-      </c>
+      <c r="D19" s="7"/>
       <c r="E19" s="7">
         <v>103.45</v>
       </c>
@@ -3482,10 +3470,7 @@
       <c r="C20" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="7">
-        <f t="shared" si="1"/>
-        <v>102.34545454545453</v>
-      </c>
+      <c r="D20" s="7"/>
       <c r="E20" s="7">
         <v>112.58</v>
       </c>
@@ -3506,10 +3491,7 @@
       <c r="C21" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="7">
-        <f t="shared" si="1"/>
-        <v>113.17272727272726</v>
-      </c>
+      <c r="D21" s="7"/>
       <c r="E21" s="7">
         <v>124.49</v>
       </c>
@@ -3531,10 +3513,7 @@
       <c r="C22" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D22" s="7">
-        <f t="shared" si="1"/>
-        <v>130.16363636363636</v>
-      </c>
+      <c r="D22" s="7"/>
       <c r="E22" s="7">
         <v>143.18</v>
       </c>
@@ -3554,7 +3533,7 @@
         <v>156</v>
       </c>
       <c r="D23" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D16:D24" si="1">E23 / 1.1</f>
         <v>708.4</v>
       </c>
       <c r="E23" s="7">
@@ -3625,10 +3604,7 @@
       <c r="C26" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="7">
-        <f t="shared" ref="D26:D38" si="2">E26 / 1.1</f>
-        <v>80.763636363636365</v>
-      </c>
+      <c r="D26" s="7"/>
       <c r="E26" s="7">
         <v>88.84</v>
       </c>
@@ -3650,10 +3626,7 @@
       <c r="C27" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="7">
-        <f t="shared" si="2"/>
-        <v>96.836363636363629</v>
-      </c>
+      <c r="D27" s="7"/>
       <c r="E27" s="7">
         <v>106.52</v>
       </c>
@@ -3675,10 +3648,7 @@
       <c r="C28" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="7">
-        <f t="shared" si="2"/>
-        <v>109.59090909090908</v>
-      </c>
+      <c r="D28" s="7"/>
       <c r="E28" s="7">
         <v>120.55</v>
       </c>
@@ -3697,10 +3667,7 @@
       <c r="B29" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D29" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="8"/>
       <c r="G29" s="3" t="s">
@@ -3720,10 +3687,7 @@
       <c r="C30" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="7">
-        <f t="shared" si="2"/>
-        <v>138.96363636363637</v>
-      </c>
+      <c r="D30" s="7"/>
       <c r="E30" s="7">
         <v>152.86000000000001</v>
       </c>
@@ -3745,10 +3709,7 @@
       <c r="C31" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="7">
-        <f t="shared" si="2"/>
-        <v>171.5090909090909</v>
-      </c>
+      <c r="D31" s="7"/>
       <c r="E31" s="7">
         <v>188.66</v>
       </c>
@@ -3770,10 +3731,7 @@
       <c r="C32" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="D32" s="7">
-        <f t="shared" si="2"/>
-        <v>433.99999999999994</v>
-      </c>
+      <c r="D32" s="7"/>
       <c r="E32" s="7">
         <v>477.4</v>
       </c>
@@ -3796,7 +3754,7 @@
         <v>79</v>
       </c>
       <c r="D33" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D26:D38" si="2">E33 / 1.1</f>
         <v>119.5090909090909</v>
       </c>
       <c r="E33" s="7">
@@ -4409,9 +4367,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F0F6594-513C-ED44-ADBA-97197456AB56}">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B52" sqref="B52"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4616,7 +4574,7 @@
       </c>
       <c r="E10" s="16">
         <f t="shared" ref="E10:E15" si="0">E17*1.2</f>
-        <v>67.887600000000006</v>
+        <v>67.884</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
@@ -4637,7 +4595,7 @@
       </c>
       <c r="E11" s="16">
         <f t="shared" si="0"/>
-        <v>77.404800000000009</v>
+        <v>77.399999999999991</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
@@ -4658,7 +4616,7 @@
       </c>
       <c r="E12" s="16">
         <f t="shared" si="0"/>
-        <v>88.664400000000015</v>
+        <v>88.667999999999992</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
@@ -4700,7 +4658,7 @@
       </c>
       <c r="E14" s="16">
         <f t="shared" si="0"/>
-        <v>106.70880000000001</v>
+        <v>106.70399999999999</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -4721,7 +4679,7 @@
       </c>
       <c r="E15" s="16">
         <f t="shared" si="0"/>
-        <v>122.7336</v>
+        <v>122.73599999999999</v>
       </c>
       <c r="F15" s="3">
         <v>1</v>
@@ -4737,12 +4695,9 @@
       <c r="B16" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D16" s="7">
-        <v>198.75</v>
-      </c>
+      <c r="D16" s="7"/>
       <c r="E16" s="7">
-        <f t="shared" ref="E16:E24" si="1">D16*1.1</f>
-        <v>218.62500000000003</v>
+        <v>218.63</v>
       </c>
       <c r="F16" s="3">
         <v>1</v>
@@ -4762,12 +4717,9 @@
       <c r="C17" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="7">
-        <v>51.43</v>
-      </c>
+      <c r="D17" s="7"/>
       <c r="E17" s="7">
-        <f t="shared" si="1"/>
-        <v>56.573000000000008</v>
+        <v>56.57</v>
       </c>
       <c r="F17" s="3">
         <v>1</v>
@@ -4787,12 +4739,9 @@
       <c r="C18" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="7">
-        <v>58.64</v>
-      </c>
+      <c r="D18" s="7"/>
       <c r="E18" s="7">
-        <f t="shared" si="1"/>
-        <v>64.504000000000005</v>
+        <v>64.5</v>
       </c>
       <c r="F18" s="3">
         <v>1</v>
@@ -4812,12 +4761,9 @@
       <c r="C19" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="7">
-        <v>67.17</v>
-      </c>
+      <c r="D19" s="7"/>
       <c r="E19" s="7">
-        <f t="shared" si="1"/>
-        <v>73.887000000000015</v>
+        <v>73.89</v>
       </c>
       <c r="F19" s="3">
         <v>1</v>
@@ -4837,11 +4783,8 @@
       <c r="C20" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="7">
-        <v>73.099999999999994</v>
-      </c>
+      <c r="D20" s="7"/>
       <c r="E20" s="7">
-        <f t="shared" si="1"/>
         <v>80.41</v>
       </c>
       <c r="F20" s="3">
@@ -4862,12 +4805,9 @@
       <c r="C21" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="7">
-        <v>80.84</v>
-      </c>
+      <c r="D21" s="7"/>
       <c r="E21" s="7">
-        <f t="shared" si="1"/>
-        <v>88.924000000000007</v>
+        <v>88.92</v>
       </c>
       <c r="F21" s="3">
         <v>1</v>
@@ -4886,12 +4826,9 @@
       <c r="C22" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D22" s="7">
-        <v>92.98</v>
-      </c>
+      <c r="D22" s="7"/>
       <c r="E22" s="7">
-        <f t="shared" si="1"/>
-        <v>102.27800000000001</v>
+        <v>102.28</v>
       </c>
       <c r="F22" s="3">
         <v>1</v>
@@ -4912,7 +4849,7 @@
         <v>506</v>
       </c>
       <c r="E23" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E16:E24" si="1">D23*1.1</f>
         <v>556.6</v>
       </c>
       <c r="F23" s="3">
@@ -4982,12 +4919,9 @@
       <c r="C26" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="7">
-        <v>57.69</v>
-      </c>
+      <c r="D26" s="7"/>
       <c r="E26" s="7">
-        <f t="shared" ref="E26:E37" si="2">D26*1.1</f>
-        <v>63.459000000000003</v>
+        <v>63.46</v>
       </c>
       <c r="F26" s="3">
         <v>1</v>
@@ -5006,12 +4940,9 @@
       <c r="C27" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="7">
-        <v>69.17</v>
-      </c>
+      <c r="D27" s="7"/>
       <c r="E27" s="7">
-        <f t="shared" si="2"/>
-        <v>76.087000000000003</v>
+        <v>76.09</v>
       </c>
       <c r="F27" s="3">
         <v>1</v>
@@ -5030,12 +4961,9 @@
       <c r="C28" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="9">
-        <v>78.28</v>
-      </c>
+      <c r="D28" s="9"/>
       <c r="E28" s="7">
-        <f t="shared" si="2"/>
-        <v>86.108000000000004</v>
+        <v>86.11</v>
       </c>
       <c r="F28" s="8">
         <v>1</v>
@@ -5054,7 +4982,6 @@
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="7">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F29" s="8"/>
@@ -5075,12 +5002,9 @@
       <c r="C30" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="9">
-        <v>99.26</v>
-      </c>
+      <c r="D30" s="9"/>
       <c r="E30" s="7">
-        <f t="shared" si="2"/>
-        <v>109.18600000000002</v>
+        <v>109.19</v>
       </c>
       <c r="F30" s="8">
         <v>1</v>
@@ -5100,12 +5024,9 @@
       <c r="C31" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="9">
-        <v>122.51</v>
-      </c>
+      <c r="D31" s="9"/>
       <c r="E31" s="7">
-        <f t="shared" si="2"/>
-        <v>134.76100000000002</v>
+        <v>134.76</v>
       </c>
       <c r="F31" s="8">
         <v>1</v>
@@ -5125,11 +5046,8 @@
       <c r="C32" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="D32" s="7">
-        <v>310</v>
-      </c>
+      <c r="D32" s="7"/>
       <c r="E32" s="7">
-        <f t="shared" si="2"/>
         <v>341</v>
       </c>
       <c r="F32" s="3">
@@ -5154,7 +5072,7 @@
         <v>85.36</v>
       </c>
       <c r="E33" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="E26:E37" si="2">D33*1.1</f>
         <v>93.896000000000001</v>
       </c>
       <c r="F33" s="3">

--- a/myFile.xlsx
+++ b/myFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcot./Library/Mobile Documents/com~apple~CloudDocs/_Job applications/In A Minnit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D556415-EA12-7640-BAC7-0D614D8443A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A63EE9-6D73-1547-B18D-C58E50538BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4120" yWindow="680" windowWidth="21280" windowHeight="21260" activeTab="3" xr2:uid="{C3036B9E-04F3-A844-BF7B-4A86B94952F3}"/>
+    <workbookView xWindow="4120" yWindow="680" windowWidth="21280" windowHeight="21260" activeTab="2" xr2:uid="{C3036B9E-04F3-A844-BF7B-4A86B94952F3}"/>
   </bookViews>
   <sheets>
     <sheet name="IAM hrly rates" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="243">
   <si>
     <t>Estimated time to complete the task</t>
   </si>
@@ -805,6 +805,15 @@
   </si>
   <si>
     <t>Posh Bristol Lever style - Reece. Note, only use if existing spout is chrome and will match new taps</t>
+  </si>
+  <si>
+    <t>Timber Cavity Slider door</t>
+  </si>
+  <si>
+    <t>8 hours</t>
+  </si>
+  <si>
+    <t>Painting excluded</t>
   </si>
 </sst>
 </file>
@@ -3160,11 +3169,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADA2F700-33CA-E341-898D-2C44147F6EEF}">
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G46" sqref="G46:H48"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4542,6 +4551,29 @@
       </c>
       <c r="H57" t="s">
         <v>231</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D58" s="14">
+        <v>1215</v>
+      </c>
+      <c r="E58" s="16">
+        <v>1336.5</v>
+      </c>
+      <c r="F58" s="3">
+        <v>1</v>
+      </c>
+      <c r="G58" t="s">
+        <v>242</v>
+      </c>
+      <c r="H58" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -4562,8 +4594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F0F6594-513C-ED44-ADBA-97197456AB56}">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
